--- a/配置表/示例配置.xlsx
+++ b/配置表/示例配置.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23280" windowHeight="14595"/>
+    <workbookView windowWidth="23280" windowHeight="13005"/>
   </bookViews>
   <sheets>
-    <sheet name="t_example" sheetId="1" r:id="rId1"/>
+    <sheet name="c_example" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -1011,15 +1011,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="14.75" style="1" customWidth="1"/>
@@ -1097,10 +1097,27 @@
       <c r="D4" s="1">
         <v>2</v>
       </c>
-      <c r="E4" s="1">
-        <v>3</v>
+      <c r="E4" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="40.5" spans="2:6">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
